--- a/results/mp/logistic/home-spam/confidence/84/stop-words-topk-0.1/avg_0.004_scores.xlsx
+++ b/results/mp/logistic/home-spam/confidence/84/stop-words-topk-0.1/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="47">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,12 +43,12 @@
     <t>return</t>
   </si>
   <si>
+    <t>returned</t>
+  </si>
+  <si>
     <t>poor</t>
   </si>
   <si>
-    <t>returned</t>
-  </si>
-  <si>
     <t>stopped</t>
   </si>
   <si>
@@ -58,15 +58,15 @@
     <t>useless</t>
   </si>
   <si>
+    <t>junk</t>
+  </si>
+  <si>
+    <t>broke</t>
+  </si>
+  <si>
     <t>filters</t>
   </si>
   <si>
-    <t>broke</t>
-  </si>
-  <si>
-    <t>junk</t>
-  </si>
-  <si>
     <t>difficult</t>
   </si>
   <si>
@@ -76,45 +76,42 @@
     <t>maybe</t>
   </si>
   <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>disappointed</t>
+  </si>
+  <si>
     <t>months</t>
   </si>
   <si>
-    <t>disappointed</t>
-  </si>
-  <si>
-    <t>ok</t>
+    <t>however</t>
+  </si>
+  <si>
+    <t>cheap</t>
+  </si>
+  <si>
+    <t>broken</t>
+  </si>
+  <si>
+    <t>plastic</t>
+  </si>
+  <si>
+    <t>filter</t>
   </si>
   <si>
     <t>grind</t>
   </si>
   <si>
-    <t>however</t>
-  </si>
-  <si>
-    <t>cheap</t>
-  </si>
-  <si>
-    <t>plastic</t>
-  </si>
-  <si>
     <t>lid</t>
   </si>
   <si>
-    <t>broken</t>
-  </si>
-  <si>
-    <t>filter</t>
-  </si>
-  <si>
-    <t>1</t>
+    <t>worked</t>
   </si>
   <si>
     <t>back</t>
   </si>
   <si>
-    <t>worked</t>
-  </si>
-  <si>
     <t>work</t>
   </si>
   <si>
@@ -130,12 +127,12 @@
     <t>excellent</t>
   </si>
   <si>
+    <t>awesome</t>
+  </si>
+  <si>
     <t>loves</t>
   </si>
   <si>
-    <t>awesome</t>
-  </si>
-  <si>
     <t>perfect</t>
   </si>
   <si>
@@ -146,9 +143,6 @@
   </si>
   <si>
     <t>pleased</t>
-  </si>
-  <si>
-    <t>perfectly</t>
   </si>
   <si>
     <t>happy</t>
@@ -518,7 +512,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q30"/>
+  <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -526,10 +520,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -587,38 +581,38 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9380530973451328</v>
+        <v>0.9469026548672567</v>
       </c>
       <c r="C3">
+        <v>107</v>
+      </c>
+      <c r="D3">
+        <v>107</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>6</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K3">
+        <v>0.828125</v>
+      </c>
+      <c r="L3">
         <v>106</v>
       </c>
-      <c r="D3">
+      <c r="M3">
         <v>106</v>
       </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>7</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K3">
-        <v>0.8203125</v>
-      </c>
-      <c r="L3">
-        <v>105</v>
-      </c>
-      <c r="M3">
-        <v>105</v>
-      </c>
       <c r="N3">
         <v>1</v>
       </c>
@@ -629,7 +623,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -637,13 +631,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.92</v>
+        <v>0.898989898989899</v>
       </c>
       <c r="C4">
-        <v>46</v>
+        <v>89</v>
       </c>
       <c r="D4">
-        <v>46</v>
+        <v>89</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -655,19 +649,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K4">
-        <v>0.7526881720430108</v>
+        <v>0.7608695652173914</v>
       </c>
       <c r="L4">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="M4">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -679,7 +673,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>23</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -687,13 +681,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9090909090909091</v>
+        <v>0.88</v>
       </c>
       <c r="C5">
-        <v>90</v>
+        <v>44</v>
       </c>
       <c r="D5">
-        <v>90</v>
+        <v>44</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -705,19 +699,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K5">
-        <v>0.7391304347826086</v>
+        <v>0.7419354838709677</v>
       </c>
       <c r="L5">
-        <v>34</v>
+        <v>69</v>
       </c>
       <c r="M5">
-        <v>34</v>
+        <v>69</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -729,7 +723,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -737,13 +731,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8490566037735849</v>
+        <v>0.8679245283018868</v>
       </c>
       <c r="C6">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D6">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -755,19 +749,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K6">
-        <v>0.7084745762711865</v>
+        <v>0.7016949152542373</v>
       </c>
       <c r="L6">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="M6">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -779,7 +773,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -808,16 +802,16 @@
         <v>18</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K7">
-        <v>0.6052631578947368</v>
+        <v>0.5897832817337462</v>
       </c>
       <c r="L7">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="M7">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -829,7 +823,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>255</v>
+        <v>265</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -858,7 +852,7 @@
         <v>8</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K8">
         <v>0.5021645021645021</v>
@@ -887,13 +881,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7727272727272727</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="C9">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D9">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -905,10 +899,10 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K9">
         <v>0.4805194805194805</v>
@@ -937,13 +931,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7675675675675676</v>
+        <v>0.7513513513513513</v>
       </c>
       <c r="C10">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D10">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -955,19 +949,19 @@
         <v>0</v>
       </c>
       <c r="H10">
+        <v>46</v>
+      </c>
+      <c r="J10" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="J10" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="K10">
-        <v>0.4210526315789473</v>
+        <v>0.2114285714285714</v>
       </c>
       <c r="L10">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="M10">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -979,7 +973,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>44</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -987,13 +981,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.7115384615384616</v>
+        <v>0.75</v>
       </c>
       <c r="C11">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D11">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1005,19 +999,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K11">
-        <v>0.2057142857142857</v>
+        <v>0.158908507223114</v>
       </c>
       <c r="L11">
-        <v>36</v>
+        <v>198</v>
       </c>
       <c r="M11">
-        <v>36</v>
+        <v>198</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1029,7 +1023,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>139</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1037,13 +1031,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.7058823529411765</v>
+        <v>0.6911764705882353</v>
       </c>
       <c r="C12">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D12">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1055,19 +1049,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K12">
-        <v>0.1622489959839357</v>
+        <v>0.05753424657534247</v>
       </c>
       <c r="L12">
-        <v>202</v>
+        <v>42</v>
       </c>
       <c r="M12">
-        <v>203</v>
+        <v>42</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1076,10 +1070,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>1043</v>
+        <v>688</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1087,13 +1081,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6438356164383562</v>
+        <v>0.6712328767123288</v>
       </c>
       <c r="C13">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D13">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1105,31 +1099,7 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>26</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="K13">
-        <v>0.0547945205479452</v>
-      </c>
-      <c r="L13">
-        <v>40</v>
-      </c>
-      <c r="M13">
-        <v>40</v>
-      </c>
-      <c r="N13">
-        <v>1</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>690</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1137,13 +1107,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.6037735849056604</v>
+        <v>0.5660377358490566</v>
       </c>
       <c r="C14">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D14">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1155,7 +1125,7 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1163,13 +1133,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5943396226415094</v>
+        <v>0.5407407407407407</v>
       </c>
       <c r="C15">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="D15">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1181,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>43</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1189,13 +1159,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5736434108527132</v>
+        <v>0.5348837209302325</v>
       </c>
       <c r="C16">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D16">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1207,7 +1177,7 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1215,13 +1185,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.562962962962963</v>
+        <v>0.5283018867924528</v>
       </c>
       <c r="C17">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="D17">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1233,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>59</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1241,25 +1211,25 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5211267605633803</v>
+        <v>0.5256410256410257</v>
       </c>
       <c r="C18">
+        <v>41</v>
+      </c>
+      <c r="D18">
+        <v>41</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18" t="b">
+        <v>0</v>
+      </c>
+      <c r="H18">
         <v>37</v>
-      </c>
-      <c r="D18">
-        <v>37</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1267,13 +1237,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.5</v>
+        <v>0.517948717948718</v>
       </c>
       <c r="C19">
-        <v>39</v>
+        <v>101</v>
       </c>
       <c r="D19">
-        <v>39</v>
+        <v>101</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1285,7 +1255,7 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>39</v>
+        <v>94</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1293,13 +1263,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.4717948717948718</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="C20">
-        <v>92</v>
+        <v>42</v>
       </c>
       <c r="D20">
-        <v>92</v>
+        <v>42</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1311,7 +1281,7 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>103</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1319,13 +1289,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.4256756756756757</v>
+        <v>0.4324324324324325</v>
       </c>
       <c r="C21">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D21">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1337,7 +1307,7 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1345,13 +1315,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.415929203539823</v>
+        <v>0.4137931034482759</v>
       </c>
       <c r="C22">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="D22">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1363,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>66</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1371,13 +1341,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.4111111111111111</v>
+        <v>0.4084507042253521</v>
       </c>
       <c r="C23">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D23">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1389,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>53</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1397,13 +1367,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.3793103448275862</v>
+        <v>0.3805309734513274</v>
       </c>
       <c r="C24">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="D24">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1415,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>54</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1423,13 +1393,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.3398058252427185</v>
+        <v>0.2681564245810056</v>
       </c>
       <c r="C25">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="D25">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1441,7 +1411,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>68</v>
+        <v>131</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1449,13 +1419,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.2756410256410257</v>
+        <v>0.217948717948718</v>
       </c>
       <c r="C26">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D26">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1467,7 +1437,7 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>113</v>
+        <v>122</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1475,13 +1445,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.223463687150838</v>
+        <v>0.123989218328841</v>
       </c>
       <c r="C27">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D27">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1493,7 +1463,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>139</v>
+        <v>325</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1501,25 +1471,25 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.1347708894878706</v>
+        <v>0.05221932114882506</v>
       </c>
       <c r="C28">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D28">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28">
-        <v>321</v>
+        <v>726</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1527,13 +1497,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.05084745762711865</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="C29">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D29">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1545,33 +1515,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B30">
-        <v>0.04625850340136054</v>
-      </c>
-      <c r="C30">
-        <v>34</v>
-      </c>
-      <c r="D30">
-        <v>34</v>
-      </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-      <c r="G30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H30">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
   </sheetData>
